--- a/Excel/MonsterSkill.xlsx
+++ b/Excel/MonsterSkill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="168">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,342 @@
   </si>
   <si>
     <t>ui/sprites/monsterskills/low_zhaojia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔雷咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁垒击破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级必杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱烈火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级法爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级法波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级法连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级反击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级反震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级感知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级固法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级鬼魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级会心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级火吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊心一剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级雷吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力劈华山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级冥思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级魔心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级强力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级强壮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级驱鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神佑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水漫金山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级水吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰山压顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级偷袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级土吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级幸运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级隐身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级永恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级再生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级招架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_benlei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_bilei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_bisha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_dahuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_fabo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_fabao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_fafang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_falian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_fangyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_fanji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_fanzhen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_minjie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_ganzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_gufa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_guihun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_huixin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_huoxi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_jingshen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_jingxin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_leixi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_lianji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_lipi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_mingsi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_moxin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_qiangli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_qiangzhuang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_qugui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_shenji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_shenyou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_dashui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_shuixi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_siwang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_taishan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_touxi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_tujin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_tuxi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_xingyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_xixie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_yinshen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_yongheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_zaisheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/sprites/monsterskills/hi_zhaojia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1160,6 +1496,468 @@
         <v>83</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
